--- a/O2/UML/Activity_diagram/ActivityDiagrams.xlsx
+++ b/O2/UML/Activity_diagram/ActivityDiagrams.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21001"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF641271-9192-4085-8398-166DB846C844}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Lịch sử" sheetId="1" r:id="rId1"/>
@@ -58,7 +59,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -182,7 +183,13 @@
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="8" name="Group 7"/>
+        <xdr:cNvPr id="8" name="Group 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000008000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGrpSpPr/>
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
@@ -195,7 +202,13 @@
       </xdr:grpSpPr>
       <xdr:grpSp>
         <xdr:nvGrpSpPr>
-          <xdr:cNvPr id="7" name="Group 6"/>
+          <xdr:cNvPr id="7" name="Group 6">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000007000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvGrpSpPr/>
         </xdr:nvGrpSpPr>
         <xdr:grpSpPr>
@@ -208,7 +221,13 @@
         </xdr:grpSpPr>
         <xdr:grpSp>
           <xdr:nvGrpSpPr>
-            <xdr:cNvPr id="6" name="Group 5"/>
+            <xdr:cNvPr id="6" name="Group 5">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000006000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
             <xdr:cNvGrpSpPr/>
           </xdr:nvGrpSpPr>
           <xdr:grpSpPr>
@@ -221,7 +240,13 @@
           </xdr:grpSpPr>
           <xdr:pic>
             <xdr:nvPicPr>
-              <xdr:cNvPr id="2" name="Picture 1"/>
+              <xdr:cNvPr id="2" name="Picture 1">
+                <a:extLst>
+                  <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002000000}"/>
+                  </a:ext>
+                </a:extLst>
+              </xdr:cNvPr>
               <xdr:cNvPicPr>
                 <a:picLocks noChangeAspect="1"/>
               </xdr:cNvPicPr>
@@ -250,7 +275,13 @@
           </xdr:pic>
           <xdr:sp macro="" textlink="">
             <xdr:nvSpPr>
-              <xdr:cNvPr id="3" name="Rectangle 2"/>
+              <xdr:cNvPr id="3" name="Rectangle 2">
+                <a:extLst>
+                  <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000003000000}"/>
+                  </a:ext>
+                </a:extLst>
+              </xdr:cNvPr>
               <xdr:cNvSpPr/>
             </xdr:nvSpPr>
             <xdr:spPr>
@@ -296,7 +327,13 @@
         </xdr:grpSp>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="4" name="Rectangle 3"/>
+            <xdr:cNvPr id="4" name="Rectangle 3">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000004000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
           <xdr:spPr>
@@ -342,7 +379,13 @@
       </xdr:grpSp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="5" name="Rectangle 4"/>
+          <xdr:cNvPr id="5" name="Rectangle 4">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000005000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -408,7 +451,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Picture 2"/>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -457,7 +506,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 1"/>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -506,7 +561,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 1"/>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -555,7 +616,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 1"/>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -604,7 +671,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 1"/>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -712,6 +785,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -747,6 +837,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -922,7 +1029,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F12"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScale="145" zoomScaleNormal="100" zoomScaleSheetLayoutView="145" workbookViewId="0">
@@ -1068,11 +1175,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:BE67"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A10" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="BJ46" sqref="BJ46"/>
+    <sheetView view="pageBreakPreview" topLeftCell="A28" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="BJ57" sqref="BJ57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.140625" defaultRowHeight="11.25" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -5038,11 +5145,11 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:BJ57"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" topLeftCell="A25" zoomScale="85" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <selection activeCell="BT32" sqref="BT32"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A7" zoomScale="85" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0">
+      <selection activeCell="BW45" sqref="BW45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.140625" defaultRowHeight="11.25" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -8640,7 +8747,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:BJ39"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScale="85" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0">
@@ -11090,7 +11197,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:BE61"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
@@ -14706,7 +14813,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:BF49"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
@@ -17604,7 +17711,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:BL35"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
